--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col9a2-Mag.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col9a2-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Col9a2</t>
   </si>
   <si>
     <t>Mag</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.100276598906183</v>
+        <v>0.1480765</v>
       </c>
       <c r="H2">
-        <v>0.100276598906183</v>
+        <v>0.296153</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4132296327923659</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3194946393625491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N2">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O2">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P2">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q2">
-        <v>0.06257681684998495</v>
+        <v>0.04093426766</v>
       </c>
       <c r="R2">
-        <v>0.06257681684998495</v>
+        <v>0.24560560596</v>
       </c>
       <c r="S2">
-        <v>0.5460825143077291</v>
+        <v>0.08018476891629582</v>
       </c>
       <c r="T2">
-        <v>0.5460825143077291</v>
+        <v>0.07056831994732721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,495 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.1480765</v>
+      </c>
+      <c r="H3">
+        <v>0.296153</v>
+      </c>
+      <c r="I3">
+        <v>0.4132296327923659</v>
+      </c>
+      <c r="J3">
+        <v>0.3194946393625491</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N3">
+        <v>1.88705</v>
+      </c>
+      <c r="O3">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P3">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q3">
+        <v>0.09314258644166666</v>
+      </c>
+      <c r="R3">
+        <v>0.55885551865</v>
+      </c>
+      <c r="S3">
+        <v>0.18245389980164</v>
+      </c>
+      <c r="T3">
+        <v>0.1605724547299038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.1480765</v>
+      </c>
+      <c r="H4">
+        <v>0.296153</v>
+      </c>
+      <c r="I4">
+        <v>0.4132296327923659</v>
+      </c>
+      <c r="J4">
+        <v>0.3194946393625491</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N4">
+        <v>1.038336</v>
+      </c>
+      <c r="O4">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P4">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q4">
+        <v>0.07687658035200001</v>
+      </c>
+      <c r="R4">
+        <v>0.307506321408</v>
+      </c>
+      <c r="S4">
+        <v>0.1505909640744302</v>
+      </c>
+      <c r="T4">
+        <v>0.08835386468531806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1272026666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.381608</v>
+      </c>
+      <c r="I5">
+        <v>0.3549780771214635</v>
+      </c>
+      <c r="J5">
+        <v>0.41168487348723</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.27644</v>
+      </c>
+      <c r="N5">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P5">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q5">
+        <v>0.03516390517333333</v>
+      </c>
+      <c r="R5">
+        <v>0.31647514656</v>
+      </c>
+      <c r="S5">
+        <v>0.06888139868381055</v>
+      </c>
+      <c r="T5">
+        <v>0.09093082102311861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1272026666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.381608</v>
+      </c>
+      <c r="I6">
+        <v>0.3549780771214635</v>
+      </c>
+      <c r="J6">
+        <v>0.41168487348723</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.88705</v>
+      </c>
+      <c r="O6">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P6">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q6">
+        <v>0.08001259737777777</v>
+      </c>
+      <c r="R6">
+        <v>0.7201133764000001</v>
+      </c>
+      <c r="S6">
+        <v>0.1567340030220961</v>
+      </c>
+      <c r="T6">
+        <v>0.2069056646549896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1272026666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.381608</v>
+      </c>
+      <c r="I7">
+        <v>0.3549780771214635</v>
+      </c>
+      <c r="J7">
+        <v>0.41168487348723</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.038336</v>
+      </c>
+      <c r="O7">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P7">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q7">
+        <v>0.06603955404800001</v>
+      </c>
+      <c r="R7">
+        <v>0.3962373242880001</v>
+      </c>
+      <c r="S7">
+        <v>0.1293626754155569</v>
+      </c>
+      <c r="T7">
+        <v>0.1138483878091218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.100276598906183</v>
-      </c>
-      <c r="H3">
-        <v>0.100276598906183</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.518719428299153</v>
-      </c>
-      <c r="N3">
-        <v>0.518719428299153</v>
-      </c>
-      <c r="O3">
-        <v>0.4539174856922708</v>
-      </c>
-      <c r="P3">
-        <v>0.4539174856922708</v>
-      </c>
-      <c r="Q3">
-        <v>0.05201542005639871</v>
-      </c>
-      <c r="R3">
-        <v>0.05201542005639871</v>
-      </c>
-      <c r="S3">
-        <v>0.4539174856922708</v>
-      </c>
-      <c r="T3">
-        <v>0.4539174856922708</v>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08306033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.249181</v>
+      </c>
+      <c r="I8">
+        <v>0.2317922900861706</v>
+      </c>
+      <c r="J8">
+        <v>0.2688204871502208</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.27644</v>
+      </c>
+      <c r="N8">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P8">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q8">
+        <v>0.02296119854666666</v>
+      </c>
+      <c r="R8">
+        <v>0.20665078692</v>
+      </c>
+      <c r="S8">
+        <v>0.04497792448122313</v>
+      </c>
+      <c r="T8">
+        <v>0.05937567585942045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08306033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.249181</v>
+      </c>
+      <c r="I9">
+        <v>0.2317922900861706</v>
+      </c>
+      <c r="J9">
+        <v>0.2688204871502208</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.88705</v>
+      </c>
+      <c r="O9">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P9">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q9">
+        <v>0.05224633400555555</v>
+      </c>
+      <c r="R9">
+        <v>0.4702170060500001</v>
+      </c>
+      <c r="S9">
+        <v>0.1023435976369702</v>
+      </c>
+      <c r="T9">
+        <v>0.1351045062587655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08306033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.249181</v>
+      </c>
+      <c r="I10">
+        <v>0.2317922900861706</v>
+      </c>
+      <c r="J10">
+        <v>0.2688204871502208</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.038336</v>
+      </c>
+      <c r="O10">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P10">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q10">
+        <v>0.04312226713600001</v>
+      </c>
+      <c r="R10">
+        <v>0.2587336028160001</v>
+      </c>
+      <c r="S10">
+        <v>0.08447076796797734</v>
+      </c>
+      <c r="T10">
+        <v>0.07434030503203493</v>
       </c>
     </row>
   </sheetData>
